--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_01_end.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_01_end.xlsx
@@ -44,11 +44,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">After the fight, Gavial realizes she is up against the minions of an old acquaintance. Then, the aircraft’s engine is stolen.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That’s when Tomimi, a girl who worships the ground Gavial walks on, appears. The party decides to split up.
+    <t xml:space="preserve">After the fight, Gavial realizes she is up against the minions of an old acquaintance. Then, the aircraft's engine is stolen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That's when Tomimi, a girl who worships the ground Gavial walks on, appears. The party decides to split up.
 </t>
   </si>
   <si>
